--- a/Doku/QM-Plan.xlsx
+++ b/Doku/QM-Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="2300" yWindow="0" windowWidth="23500" windowHeight="14620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QM-Plan" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Qualitätskriterien" sheetId="3" r:id="rId3"/>
     <sheet name="Qualitätsmaßnahmen" sheetId="4" r:id="rId4"/>
     <sheet name="Zeitplan" sheetId="5" r:id="rId5"/>
+    <sheet name="Blatt1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>Qualitätsziele</t>
   </si>
@@ -128,9 +129,6 @@
   </si>
   <si>
     <t>Bezeichung</t>
-  </si>
-  <si>
-    <t>Projektmitglieder kontrolieren die Dokumentation oder das programm und achten auf die Qualitätskriterien.</t>
   </si>
   <si>
     <t>Prüfung der Software (Black.Box)</t>
@@ -278,13 +276,75 @@
   </si>
   <si>
     <t>Definition von Risiken in der Datei"Management_und_listen.xlsx" durch das Projektmitglied Sven Winkler</t>
+  </si>
+  <si>
+    <t>Prüfung der Software</t>
+  </si>
+  <si>
+    <t>Prüfung des Vorgehens</t>
+  </si>
+  <si>
+    <t>Kontrollfunktion 
+Prüfen von Dokumenten 
+Prüfung der Software 
+Zuweisung von Verantwortlichen</t>
+  </si>
+  <si>
+    <t>KW1</t>
+  </si>
+  <si>
+    <t>KW2</t>
+  </si>
+  <si>
+    <t>Projektmitglieder kontrolieren die Dokumentation oder das Programm und achten auf die Qualitätskriterien.</t>
+  </si>
+  <si>
+    <t>Die erstellten Dialoge werden auf Hinblick der Qualitätskriterien kontroliert</t>
+  </si>
+  <si>
+    <t>Überprüfung</t>
+  </si>
+  <si>
+    <t>Die Funktion wird dur die Pojektmitgleider auf hinblick auf die Qualitätskriterien kontroliert.</t>
+  </si>
+  <si>
+    <t>Überprüfung der Datenbank nach den Qualitätskriterien</t>
+  </si>
+  <si>
+    <t>Der Vorläufige Stundenplan wird überprüft</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MISERFOLG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Nicht alle Module werden in dem Stundenplan verbaut</t>
+    </r>
+  </si>
+  <si>
+    <t>Überprüfung der Dialoge mit Hilfe der Qualitätskriterien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,6 +411,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -396,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -835,9 +902,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -887,12 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -905,30 +1057,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -938,17 +1070,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -974,36 +1096,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1084,8 +1181,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="61">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1105,6 +1267,17 @@
     <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1124,6 +1297,17 @@
     <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1455,80 +1639,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="21" thickBot="1">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="48" t="s">
+    </row>
+    <row r="4" spans="2:4" ht="60">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="60">
-      <c r="B4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="50"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="D6" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="40"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="42"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="27" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1543,86 +1737,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="80" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" thickBot="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:4" ht="21" thickBot="1">
+      <c r="B3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="90" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105">
-      <c r="A4" s="26">
+    <row r="4" spans="1:4" ht="90">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75">
-      <c r="A5" s="7">
+    <row r="5" spans="1:4" ht="75">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="9">
+    <row r="6" spans="1:4" ht="30">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12">
+    <row r="7" spans="1:4">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
-      <c r="A8" s="17">
+    <row r="8" spans="1:4" ht="30">
+      <c r="B8" s="96">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="92" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1642,7 +1838,7 @@
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1652,91 +1848,91 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="21" thickBot="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="90" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="B4" s="26">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="91" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45">
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="92" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="91" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60">
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="92" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="91" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60">
-      <c r="B10" s="28">
+      <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="92" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1756,7 +1952,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1765,7 +1961,7 @@
     <col min="3" max="3" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="30" customFormat="1" ht="20">
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="20">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -1776,118 +1972,122 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="90" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="75">
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="60">
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60">
-      <c r="B9" s="20" t="s">
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="20">
+      <c r="A12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="30" customFormat="1" ht="20">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1">
-      <c r="B15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="90" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="75">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
+      <c r="C16" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="30">
+      <c r="B17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="2:3" ht="20">
       <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" ht="21" thickBot="1">
+      <c r="B20" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="30">
+      <c r="B21" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="21" thickBot="1">
-      <c r="B20" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="30">
-      <c r="B21" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="25" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="30">
+      <c r="B22" s="95" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="30">
-      <c r="B22" s="32" t="s">
+      <c r="C22" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="6" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="45">
+      <c r="B23" s="96" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="45">
-      <c r="B23" s="31" t="s">
+      <c r="C23" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="11" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="60">
+      <c r="B24" s="95" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="60">
-      <c r="B24" s="33" t="s">
+      <c r="C24" s="91" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1903,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AB27"/>
+  <dimension ref="A4:AF27"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1917,500 +2117,620 @@
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="26.1640625" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" customWidth="1"/>
+    <col min="27" max="27" width="19.5" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" customWidth="1"/>
+    <col min="30" max="30" width="26.83203125" customWidth="1"/>
+    <col min="31" max="31" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:28">
-      <c r="B4" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="51" t="s">
+    <row r="4" spans="1:32">
+      <c r="B4" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="51" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="51" t="s">
+      <c r="H4" s="74"/>
+      <c r="I4" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="51" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="51" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="51" t="s">
+      <c r="N4" s="74"/>
+      <c r="O4" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="51" t="s">
+      <c r="P4" s="74"/>
+      <c r="Q4" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="51" t="s">
+      <c r="R4" s="74"/>
+      <c r="S4" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="51" t="s">
+      <c r="T4" s="74"/>
+      <c r="U4" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="51" t="s">
+      <c r="V4" s="74"/>
+      <c r="W4" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="51" t="s">
+      <c r="X4" s="74"/>
+      <c r="Y4" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="51" t="s">
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="51" t="s">
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" s="74"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="76"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="B6" s="79"/>
+      <c r="C6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AB4" s="52"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="B5" s="56"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="54"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="B6" s="57"/>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="38" t="s">
+      <c r="Q6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="38" t="s">
+      <c r="U6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="V6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="X6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y6" s="38" t="s">
+      <c r="Y6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Z6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA6" s="38" t="s">
+      <c r="AA6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="56">
-      <c r="B7" s="61" t="s">
+      <c r="AC6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="56">
+      <c r="B7" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="84"/>
+    </row>
+    <row r="8" spans="1:32" ht="56">
+      <c r="A8" s="17"/>
+      <c r="B8" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="38"/>
+    </row>
+    <row r="9" spans="1:32" ht="42">
+      <c r="A9" s="32"/>
+      <c r="B9" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="40"/>
+    </row>
+    <row r="10" spans="1:32" ht="60">
+      <c r="A10" s="32"/>
+      <c r="B10" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="38"/>
+    </row>
+    <row r="11" spans="1:32" ht="45">
+      <c r="A11" s="32"/>
+      <c r="B11" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD11" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE11" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF11" s="101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="60">
+      <c r="A12" s="17"/>
+      <c r="B12" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z12" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="101"/>
-    </row>
-    <row r="8" spans="1:28" ht="56">
-      <c r="A8" s="35"/>
-      <c r="B8" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="95"/>
-    </row>
-    <row r="9" spans="1:28" ht="42">
-      <c r="A9" s="58"/>
-      <c r="B9" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="97"/>
-    </row>
-    <row r="10" spans="1:28" ht="60">
-      <c r="A10" s="58"/>
-      <c r="B10" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="95"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="58"/>
-      <c r="B11" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="97"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="35"/>
-      <c r="B12" s="62" t="s">
+      <c r="AA12" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB12" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="38"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="17"/>
+      <c r="B13" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="95"/>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="35"/>
-      <c r="B13" s="61" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="40"/>
+    </row>
+    <row r="14" spans="1:32" ht="20">
+      <c r="A14" s="33"/>
+      <c r="B14" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="97"/>
-    </row>
-    <row r="14" spans="1:28" ht="20">
-      <c r="A14" s="59"/>
-      <c r="B14" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="99"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="35"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-    </row>
-    <row r="16" spans="1:28" ht="20">
-      <c r="A16" s="60"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="42"/>
+    </row>
+    <row r="15" spans="1:32" ht="45">
+      <c r="A15" s="17"/>
+      <c r="B15" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="87"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="88"/>
+    </row>
+    <row r="16" spans="1:32" ht="20">
+      <c r="A16" s="34"/>
     </row>
     <row r="17" spans="1:1" ht="20">
-      <c r="A17" s="60"/>
+      <c r="A17" s="34"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="35"/>
+      <c r="A19" s="17"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="35"/>
+      <c r="A20" s="17"/>
     </row>
     <row r="21" spans="1:1" ht="20">
-      <c r="A21" s="60"/>
+      <c r="A21" s="34"/>
     </row>
     <row r="22" spans="1:1" ht="20">
-      <c r="A22" s="60"/>
+      <c r="A22" s="34"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="35"/>
+      <c r="A23" s="17"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="35"/>
+      <c r="A24" s="17"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="35"/>
+      <c r="A25" s="17"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="17"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="35"/>
+      <c r="A27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I4:J5"/>
     <mergeCell ref="Y4:Z5"/>
     <mergeCell ref="AA4:AB5"/>
     <mergeCell ref="M4:N5"/>
@@ -2419,12 +2739,6 @@
     <mergeCell ref="S4:T5"/>
     <mergeCell ref="U4:V5"/>
     <mergeCell ref="W4:X5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I4:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2434,4 +2748,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>